--- a/Anualidades.xlsx
+++ b/Anualidades.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Monto</t>
   </si>
@@ -48,11 +48,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +86,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -365,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:L22"/>
+  <dimension ref="D4:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,25 +387,20 @@
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5000000</v>
-      </c>
-      <c r="J4" s="1">
-        <f>-FV(H5,10,,H4)</f>
-        <v>5976511.8417383377</v>
-      </c>
-      <c r="K4" s="1">
-        <f>J4-H4</f>
-        <v>976511.84173833765</v>
-      </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+        <v>2800000</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>1</v>
       </c>
@@ -402,43 +408,39 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>2</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
-      <c r="J6">
-        <f>H4*(1+H5)</f>
-        <v>5090000</v>
-      </c>
-      <c r="K6">
-        <f>J6*(1+H5)</f>
-        <v>5181620</v>
-      </c>
-      <c r="L6">
-        <f>K6-H4</f>
-        <v>181620</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="2">
         <f>-PMT(H5,H6,H4)</f>
-        <v>467009.88434472051</v>
+        <v>261525.53523304345</v>
       </c>
       <c r="I8" s="2">
         <f>H8*12</f>
-        <v>5604118.6121366462</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+        <v>3138306.4227965213</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="2">
+        <f>-FV(H5,1,,H4)</f>
+        <v>2850400</v>
+      </c>
+      <c r="M9" s="2">
+        <f>L9-H4</f>
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H10" s="2"/>
       <c r="I10" t="s">
         <v>4</v>
@@ -446,173 +448,267 @@
       <c r="J10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="2">
+        <f>L9-J11</f>
+        <v>2639274.4647669564</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11">
         <f>(H4/12)*H5</f>
-        <v>7500</v>
+        <v>4200</v>
+      </c>
+      <c r="G11" s="3">
+        <f>I11/$H$8</f>
+        <v>0.19271540714022029</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="2">
         <f>-IPMT($H$5,H11,1,$H$4)</f>
-        <v>90000</v>
+        <v>50399.999999999993</v>
       </c>
       <c r="J11" s="2">
         <f>-PPMT($H$5,H11,$H$6,$H$4)</f>
-        <v>377009.88434472051</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+        <v>211125.53523304345</v>
+      </c>
+      <c r="L11" s="2">
+        <f>-FV(H5,1,,L10)</f>
+        <v>2686781.4051327617</v>
+      </c>
+      <c r="M11" s="2">
+        <f>L11-L10</f>
+        <v>47506.940365805291</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12">
         <f>H4/12</f>
-        <v>416666.66666666669</v>
+        <v>233333.33333333334</v>
       </c>
       <c r="E12">
         <f>D12+D11</f>
-        <v>424166.66666666669</v>
+        <v>237533.33333333334</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12:G22" si="0">I12/$H$8</f>
+        <v>0.17818428446874426</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" ref="I12:I22" si="0">-IPMT($H$5,H12,$H$6,$H$4)</f>
-        <v>83213.822081795035</v>
+        <f t="shared" ref="I12:I22" si="1">-IPMT($H$5,H12,$H$6,$H$4)</f>
+        <v>46599.740365805214</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ref="J12:J22" si="1">-PPMT($H$5,H12,$H$6,$H$4)</f>
-        <v>383796.06226292544</v>
-      </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J12:J22" si="2">-PPMT($H$5,H12,$H$6,$H$4)</f>
+        <v>214925.79486723823</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16339160158918167</v>
+      </c>
       <c r="H13" s="2">
         <v>3</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="0"/>
-        <v>76305.49296106238</v>
+        <f t="shared" si="1"/>
+        <v>42731.076058194929</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="1"/>
-        <v>390704.39138365811</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>218794.45917484851</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14833265041778693</v>
+      </c>
       <c r="H14" s="2">
         <v>4</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="0"/>
-        <v>69272.813916156534</v>
+        <f t="shared" si="1"/>
+        <v>38792.775793047651</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="1"/>
-        <v>397737.07042856398</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>222732.7594399958</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13300263812530708</v>
+      </c>
       <c r="H15" s="2">
         <v>5</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="0"/>
-        <v>62113.546648442374</v>
+        <f t="shared" si="1"/>
+        <v>34783.586123127723</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="1"/>
-        <v>404896.33769627806</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>226741.94910991573</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11739668561156262</v>
+      </c>
       <c r="H16" s="2">
         <v>6</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="0"/>
-        <v>54825.412569909371</v>
+        <f t="shared" si="1"/>
+        <v>30702.231039149246</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="1"/>
-        <v>412184.47177481116</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>230823.3041938942</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10150982595257076</v>
+      </c>
       <c r="H17" s="2">
         <v>7</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="0"/>
-        <v>47406.09207796277</v>
+        <f t="shared" si="1"/>
+        <v>26547.411563659152</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="1"/>
-        <v>419603.79226675769</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>234978.12366938434</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>8.5337002819717012E-2</v>
+      </c>
       <c r="H18" s="2">
         <v>8</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="0"/>
-        <v>39853.223817161124</v>
+        <f t="shared" si="1"/>
+        <v>22317.805337610229</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="1"/>
-        <v>427156.66052755935</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>239207.72989543324</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>6.8873068870471926E-2</v>
+      </c>
       <c r="H19" s="2">
         <v>9</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="0"/>
-        <v>32164.403927665066</v>
+        <f t="shared" si="1"/>
+        <v>18012.066199492434</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="1"/>
-        <v>434845.48041705543</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>243513.46903355099</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>5.211278411014042E-2</v>
+      </c>
       <c r="H20" s="2">
         <v>10</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="0"/>
-        <v>24337.185280158064</v>
+        <f t="shared" si="1"/>
+        <v>13628.823756888516</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="1"/>
-        <v>442672.69906456245</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>247896.71147615495</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5050814224122956E-2</v>
+      </c>
       <c r="H21" s="2">
         <v>11</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="0"/>
-        <v>16369.076696995946</v>
+        <f t="shared" si="1"/>
+        <v>9166.6829503177287</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="1"/>
-        <v>450640.80764772452</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>252358.85228272574</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.768172888015717E-2</v>
+      </c>
       <c r="H22" s="2">
         <v>12</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="0"/>
-        <v>8257.5421593369047</v>
+        <f t="shared" si="1"/>
+        <v>4624.2236092286657</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="1"/>
-        <v>458752.34218538355</v>
+        <f t="shared" si="2"/>
+        <v>256901.31162381478</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="2">
+        <f>-PMT(H26,H27,H25)</f>
+        <v>807767.29184720607</v>
       </c>
     </row>
   </sheetData>

--- a/Anualidades.xlsx
+++ b/Anualidades.xlsx
@@ -48,10 +48,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -90,11 +92,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:M29"/>
+  <dimension ref="B3:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,22 +395,35 @@
     <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>65000000</v>
+      </c>
+    </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>2800000</v>
+      <c r="H4" s="5">
+        <f>J3*0.7</f>
+        <v>45500000</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="L4" s="3">
+        <f>K4</f>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>1.7999999999999999E-2</v>
+      <c r="H5" s="6">
+        <f>L4/12</f>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
@@ -413,7 +431,11 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <f>K6*12</f>
+        <v>42</v>
+      </c>
+      <c r="K6">
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
@@ -422,22 +444,22 @@
       </c>
       <c r="H8" s="2">
         <f>-PMT(H5,H6,H4)</f>
-        <v>261525.53523304345</v>
+        <v>1343081.4389372549</v>
       </c>
       <c r="I8" s="2">
-        <f>H8*12</f>
-        <v>3138306.4227965213</v>
+        <f>H8*48</f>
+        <v>64467909.068988234</v>
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H9" s="2"/>
       <c r="L9" s="2">
         <f>-FV(H5,1,,H4)</f>
-        <v>2850400</v>
+        <v>45973958.333333336</v>
       </c>
       <c r="M9" s="2">
         <f>L9-H4</f>
-        <v>50400</v>
+        <v>473958.33333333582</v>
       </c>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
@@ -450,265 +472,725 @@
       </c>
       <c r="L10" s="2">
         <f>L9-J11</f>
-        <v>2639274.4647669564</v>
+        <v>45104835.227729417</v>
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11">
         <f>(H4/12)*H5</f>
-        <v>4200</v>
+        <v>39496.527777777774</v>
       </c>
       <c r="G11" s="3">
         <f>I11/$H$8</f>
-        <v>0.19271540714022029</v>
+        <v>0.35288875238151163</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="2">
         <f>-IPMT($H$5,H11,1,$H$4)</f>
-        <v>50399.999999999993</v>
+        <v>473958.33333333331</v>
       </c>
       <c r="J11" s="2">
         <f>-PPMT($H$5,H11,$H$6,$H$4)</f>
-        <v>211125.53523304345</v>
+        <v>869123.10560392169</v>
       </c>
       <c r="L11" s="2">
         <f>-FV(H5,1,,L10)</f>
-        <v>2686781.4051327617</v>
+        <v>45574677.2613516</v>
       </c>
       <c r="M11" s="2">
         <f>L11-L10</f>
-        <v>47506.940365805291</v>
+        <v>469842.03362218291</v>
       </c>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12">
         <f>H4/12</f>
-        <v>233333.33333333334</v>
+        <v>3791666.6666666665</v>
       </c>
       <c r="E12">
         <f>D12+D11</f>
-        <v>237533.33333333334</v>
+        <v>3831163.1944444445</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" ref="G12:G22" si="0">I12/$H$8</f>
-        <v>0.17818428446874426</v>
+        <v>0.34614801021881908</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" ref="I12:I22" si="1">-IPMT($H$5,H12,$H$6,$H$4)</f>
-        <v>46599.740365805214</v>
+        <v>464904.96764995914</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" ref="J12:J22" si="2">-PPMT($H$5,H12,$H$6,$H$4)</f>
-        <v>214925.79486723823</v>
+        <v>878176.47128729569</v>
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>0.16339160158918167</v>
+        <v>0.33933705199193182</v>
       </c>
       <c r="H13" s="2">
         <v>3</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="1"/>
-        <v>42731.076058194929</v>
+        <v>455757.2960740499</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>218794.45917484851</v>
+        <v>887324.14286320517</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0.14833265041778693</v>
+        <v>0.33245514628351441</v>
       </c>
       <c r="H14" s="2">
         <v>4</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="1"/>
-        <v>38792.775793047651</v>
+        <v>446514.3362525581</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>222732.7594399958</v>
+        <v>896567.1026846969</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>0.13300263812530708</v>
+        <v>0.32550155405730102</v>
       </c>
       <c r="H15" s="2">
         <v>5</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="1"/>
-        <v>34783.586123127723</v>
+        <v>437175.09559959255</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>226741.94910991573</v>
+        <v>905906.34333766229</v>
       </c>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>0.11739668561156262</v>
+        <v>0.31847552857873124</v>
       </c>
       <c r="H16" s="2">
         <v>6</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="1"/>
-        <v>30702.231039149246</v>
+        <v>427738.57118982525</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>230823.3041938942</v>
-      </c>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+        <v>915342.86774742987</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>0.10150982595257076</v>
+        <v>0.31137631533475968</v>
       </c>
       <c r="H17" s="2">
         <v>7</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="1"/>
-        <v>26547.411563659152</v>
+        <v>418203.74965078948</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
-        <v>234978.12366938434</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+        <v>924877.68928646552</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>8.5337002819717012E-2</v>
+        <v>0.3042031519528301</v>
       </c>
       <c r="H18" s="2">
         <v>8</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="1"/>
-        <v>22317.805337610229</v>
+        <v>408569.60705405549</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
-        <v>239207.72989543324</v>
-      </c>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+        <v>934511.83188319951</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>6.8873068870471926E-2</v>
+        <v>0.29695526811900541</v>
       </c>
       <c r="H19" s="2">
         <v>9</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="1"/>
-        <v>18012.066199492434</v>
+        <v>398835.10880527215</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>243513.46903355099</v>
-      </c>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+        <v>944246.33013198292</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>5.211278411014042E-2</v>
+        <v>0.28963188549524505</v>
       </c>
       <c r="H20" s="2">
         <v>10</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="1"/>
-        <v>13628.823756888516</v>
+        <v>388999.20953306399</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>247896.71147615495</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+        <v>954082.22940419102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>3.5050814224122956E-2</v>
+        <v>0.28223221763582057</v>
       </c>
       <c r="H21" s="2">
         <v>11</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>9166.6829503177287</v>
+        <v>379060.85297677037</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>252358.85228272574</v>
-      </c>
-    </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+        <v>964020.58596048469</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>1.768172888015717E-2</v>
+        <v>0.27475546990286032</v>
       </c>
       <c r="H22" s="2">
         <v>12</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="1"/>
-        <v>4624.2236092286657</v>
+        <v>369018.97187301528</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
-        <v>256901.31162381478</v>
-      </c>
-    </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
+        <v>974062.46706423978</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>0</v>
       </c>
-      <c r="H25">
+      <c r="C23">
         <v>2800000</v>
       </c>
-    </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G26" t="s">
+      <c r="H23" s="2">
+        <v>13</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" ref="I23:I58" si="3">-IPMT($H$5,H23,$H$6,$H$4)</f>
+        <v>358872.48784109612</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" ref="J23:J58" si="4">-PPMT($H$5,H23,$H$6,$H$4)</f>
+        <v>984208.95109615894</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="C24">
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
+      <c r="H24" s="2">
+        <v>14</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>348620.31126717781</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="4"/>
+        <v>994461.12767007726</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="H27">
+      <c r="C25">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
+      <c r="H25" s="2">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>338261.34118728118</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="4"/>
+        <v>1004820.0977499739</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="2">
+        <v>16</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>327794.46516905224</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="4"/>
+        <v>1015286.9737682027</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>3</v>
       </c>
+      <c r="C27" s="2">
+        <f>-PMT(C24,C25,C23)</f>
+        <v>807767.29184720607</v>
+      </c>
+      <c r="H27" s="2">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="3"/>
+        <v>317218.55919230019</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="4"/>
+        <v>1025862.8797449549</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="2">
+        <v>18</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="3"/>
+        <v>306532.48752829025</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="4"/>
+        <v>1036548.9514089648</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H29" s="2">
-        <f>-PMT(H26,H27,H25)</f>
-        <v>807767.29184720607</v>
+        <v>19</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="3"/>
+        <v>295735.10261778015</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="4"/>
+        <v>1047346.3363194747</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="2">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="3"/>
+        <v>284825.24494778563</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="4"/>
+        <v>1058256.1939894692</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="2">
+        <v>21</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="3"/>
+        <v>273801.74292706198</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="4"/>
+        <v>1069279.6960101929</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="2">
+        <v>22</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="3"/>
+        <v>262663.41276028915</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="4"/>
+        <v>1080418.0261769658</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="2">
+        <v>23</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="3"/>
+        <v>251409.05832094574</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="4"/>
+        <v>1091672.3806163091</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="2">
+        <v>24</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="3"/>
+        <v>240037.47102285922</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="4"/>
+        <v>1103043.9679143957</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="2">
+        <v>25</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="3"/>
+        <v>228547.42969041754</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="4"/>
+        <v>1114534.0092468373</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="2">
+        <v>26</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="3"/>
+        <v>216937.70042742966</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="4"/>
+        <v>1126143.7385098254</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="2">
+        <v>27</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="3"/>
+        <v>205207.03648461896</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="4"/>
+        <v>1137874.402452636</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="2">
+        <v>28</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="3"/>
+        <v>193354.17812573735</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="4"/>
+        <v>1149727.2608115175</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="2">
+        <v>29</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="3"/>
+        <v>181377.85249228406</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="4"/>
+        <v>1161703.5864449709</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="2">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="3"/>
+        <v>169276.77346681559</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="4"/>
+        <v>1173804.6654704395</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="2">
+        <v>31</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="3"/>
+        <v>157049.64153483184</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="4"/>
+        <v>1186031.7974024231</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="2">
+        <v>32</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="3"/>
+        <v>144695.14364522329</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="4"/>
+        <v>1198386.2952920315</v>
+      </c>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H43" s="2">
+        <v>33</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="3"/>
+        <v>132211.95306926462</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="4"/>
+        <v>1210869.4858679904</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="2">
+        <v>34</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="3"/>
+        <v>119598.72925813971</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="4"/>
+        <v>1223482.7096791153</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H45" s="2">
+        <v>35</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="3"/>
+        <v>106854.11769898226</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="4"/>
+        <v>1236227.3212382728</v>
+      </c>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H46" s="2">
+        <v>36</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="3"/>
+        <v>93976.749769416929</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="4"/>
+        <v>1249104.6891678381</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H47" s="2">
+        <v>37</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="3"/>
+        <v>80965.242590585272</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="4"/>
+        <v>1262116.1963466695</v>
+      </c>
+    </row>
+    <row r="48" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H48" s="2">
+        <v>38</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="3"/>
+        <v>67818.198878640789</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="4"/>
+        <v>1275263.2400586142</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H49" s="2">
+        <v>39</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="3"/>
+        <v>54534.206794696896</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="4"/>
+        <v>1288547.2321425579</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H50" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="3"/>
+        <v>41111.839793211911</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="4"/>
+        <v>1301969.5991440429</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H51" s="2">
+        <v>41</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="3"/>
+        <v>27549.656468794798</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="4"/>
+        <v>1315531.7824684603</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H52" s="2">
+        <v>42</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="3"/>
+        <v>13846.200401415002</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="4"/>
+        <v>1329235.2385358401</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H53" s="2">
+        <v>43</v>
+      </c>
+      <c r="I53" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J53" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H54" s="2">
+        <v>44</v>
+      </c>
+      <c r="I54" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J54" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H55" s="2">
+        <v>45</v>
+      </c>
+      <c r="I55" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J55" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H56" s="2">
+        <v>46</v>
+      </c>
+      <c r="I56" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J56" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H57" s="2">
+        <v>47</v>
+      </c>
+      <c r="I57" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J57" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H58" s="2">
+        <v>48</v>
+      </c>
+      <c r="I58" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J58" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
